--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AI Spot-Check</t>
+          <t>Failed to take</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,99 +512,24 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>No GPS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>14</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>No GPS</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>15</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0-3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>16</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4-13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem4/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Failed to take</t>
+          <t>AI Spot-Check</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,24 +512,99 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Contact DJI Support if this error persists after restarting</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10-18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>14</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>No GPS</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>0-1</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0-3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Aircraft may be in violation of local laws and regulations</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4-13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
